--- a/Jacobi solver/Result.xlsx
+++ b/Jacobi solver/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a994f0b6a63b5edb/Education/Drexel/2019 - 2020/Spring/ECEC 622 Parallel Computer Architecture/Assignment/Jacobi solver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{372492C7-9982-483B-9892-CDB79B6CACF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1873703C-3C3F-4E97-AD18-F95007DC13C7}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="8_{372492C7-9982-483B-9892-CDB79B6CACF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39687243-8D69-47CB-8EF5-6C709CEC3DF4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EFF4558-005F-4456-AEA9-09A134CA320C}"/>
+    <workbookView xWindow="28680" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{2EFF4558-005F-4456-AEA9-09A134CA320C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>No of elements</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>v2</t>
   </si>
   <si>
     <t>removed</t>
@@ -458,7 +455,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>0</v>
@@ -919,6 +916,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E28:E31"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="G28:G31"/>
@@ -928,24 +943,6 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="J20:J23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="E8:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
